--- a/data/trans_orig/P71_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P71_R2-Dificultad-trans_orig.xlsx
@@ -1796,19 +1796,19 @@
         <v>447200</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>411394</v>
+        <v>409451</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>486312</v>
+        <v>486186</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1384163468228202</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.127333980430638</v>
+        <v>0.1267325874054654</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1505222996704913</v>
+        <v>0.1504833771714903</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>339</v>
@@ -1817,19 +1817,19 @@
         <v>341158</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>308108</v>
+        <v>307863</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>377236</v>
+        <v>374113</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1029144225665804</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09294434220971495</v>
+        <v>0.09287060364939992</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1137977052934542</v>
+        <v>0.1128556730247787</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>775</v>
@@ -1838,19 +1838,19 @@
         <v>788358</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>736478</v>
+        <v>740125</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>839486</v>
+        <v>842520</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1204372142709813</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1125115648541151</v>
+        <v>0.1130686952145792</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1282480847986637</v>
+        <v>0.1287115967525203</v>
       </c>
     </row>
     <row r="25">
@@ -1867,19 +1867,19 @@
         <v>1121594</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1068823</v>
+        <v>1063618</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1179862</v>
+        <v>1177723</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3471537242441361</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.330820129502689</v>
+        <v>0.329209026092477</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3651887603163465</v>
+        <v>0.3645266925462715</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>982</v>
@@ -1888,19 +1888,19 @@
         <v>993940</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>942331</v>
+        <v>941542</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1046848</v>
+        <v>1050818</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2998338109292804</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2842655434760554</v>
+        <v>0.284027400948655</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3157943034686072</v>
+        <v>0.3169917660510617</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2085</v>
@@ -1909,19 +1909,19 @@
         <v>2115534</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2038655</v>
+        <v>2039070</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2190674</v>
+        <v>2188766</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3231896430949351</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3114448639411263</v>
+        <v>0.3115082967073393</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3346686867261827</v>
+        <v>0.3343772032504074</v>
       </c>
     </row>
     <row r="26">
@@ -1938,19 +1938,19 @@
         <v>1077894</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1021870</v>
+        <v>1023562</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1133600</v>
+        <v>1126473</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3336276168208561</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3162871422766038</v>
+        <v>0.3168108180737333</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3508696394458807</v>
+        <v>0.3486639066890131</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1028</v>
@@ -1959,19 +1959,19 @@
         <v>1057538</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1000765</v>
+        <v>1007663</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1110350</v>
+        <v>1114560</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.319018943712194</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3018927754036018</v>
+        <v>0.3039736626507335</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3349501990213267</v>
+        <v>0.3362202441150174</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2083</v>
@@ -1980,19 +1980,19 @@
         <v>2135432</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2058686</v>
+        <v>2064230</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2213631</v>
+        <v>2215437</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3262293905069414</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3145050239581297</v>
+        <v>0.315351919133231</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3381758542454951</v>
+        <v>0.3384517329354192</v>
       </c>
     </row>
     <row r="27">
@@ -2009,19 +2009,19 @@
         <v>584141</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>536762</v>
+        <v>540265</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>624587</v>
+        <v>629286</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1808023121121876</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1661375860688604</v>
+        <v>0.1672216755585526</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1933209398755536</v>
+        <v>0.1947754577590402</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>885</v>
@@ -2030,19 +2030,19 @@
         <v>922333</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>870066</v>
+        <v>874633</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>976568</v>
+        <v>972911</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2782328227919453</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2624656905835934</v>
+        <v>0.26384362051667</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2945932591776289</v>
+        <v>0.2934901523510872</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1459</v>
@@ -2051,19 +2051,19 @@
         <v>1506475</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1439705</v>
+        <v>1436929</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1567173</v>
+        <v>1571189</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2301437521271422</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2199434528498186</v>
+        <v>0.2195193612301093</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2394166689381697</v>
+        <v>0.2400301997662136</v>
       </c>
     </row>
     <row r="28">
@@ -3447,19 +3447,19 @@
         <v>503023</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>461887</v>
+        <v>458490</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>547287</v>
+        <v>549116</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1475509350906579</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1354846658964064</v>
+        <v>0.1344882722207025</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1605350167375361</v>
+        <v>0.161071577291017</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>412</v>
@@ -3468,19 +3468,19 @@
         <v>452736</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>411966</v>
+        <v>413112</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>494070</v>
+        <v>496874</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1277931283753553</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1162850358957945</v>
+        <v>0.1166085650859729</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1394605691806756</v>
+        <v>0.1402521473946404</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>873</v>
@@ -3489,19 +3489,19 @@
         <v>955758</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>901694</v>
+        <v>900730</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1023782</v>
+        <v>1026384</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1374822136968412</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1297053064225191</v>
+        <v>0.1295667043234323</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1472672223745433</v>
+        <v>0.1476414344413023</v>
       </c>
     </row>
     <row r="25">
@@ -3518,19 +3518,19 @@
         <v>885115</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>838288</v>
+        <v>832277</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>937923</v>
+        <v>940308</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2596296203069124</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2458938593459712</v>
+        <v>0.2441306611112443</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2751196005946691</v>
+        <v>0.2758193782182293</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>821</v>
@@ -3539,19 +3539,19 @@
         <v>875796</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>824544</v>
+        <v>821033</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>931210</v>
+        <v>932603</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2472098607709755</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2327432112287872</v>
+        <v>0.2317521023323982</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2628516632406809</v>
+        <v>0.2632447115145226</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1651</v>
@@ -3560,19 +3560,19 @@
         <v>1760911</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1688471</v>
+        <v>1680383</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1834036</v>
+        <v>1831018</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.253300420899941</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2428802260846411</v>
+        <v>0.2417168157566058</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2638191696845669</v>
+        <v>0.2633850797472195</v>
       </c>
     </row>
     <row r="26">
@@ -3589,19 +3589,19 @@
         <v>977073</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>923032</v>
+        <v>918924</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1029870</v>
+        <v>1031677</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.286603481793024</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2707517546693933</v>
+        <v>0.2695468032390467</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3020904588487729</v>
+        <v>0.302620587621833</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1020</v>
@@ -3610,19 +3610,19 @@
         <v>1094262</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1034798</v>
+        <v>1039511</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1153127</v>
+        <v>1155097</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3088761545526734</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2920912531986704</v>
+        <v>0.293421665557395</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3254918759386478</v>
+        <v>0.3260478261785454</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1944</v>
@@ -3631,19 +3631,19 @@
         <v>2071335</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1991880</v>
+        <v>1993183</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2154597</v>
+        <v>2151126</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2979537971364205</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2865244106403678</v>
+        <v>0.2867119187137868</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3099307125632588</v>
+        <v>0.3094313842162279</v>
       </c>
     </row>
     <row r="27">
@@ -3660,19 +3660,19 @@
         <v>1043935</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>990857</v>
+        <v>989983</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1097770</v>
+        <v>1098466</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3062159628094056</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2906467982394483</v>
+        <v>0.2903905478034928</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3220075191731135</v>
+        <v>0.3222115492250381</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1031</v>
@@ -3681,19 +3681,19 @@
         <v>1119928</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1059474</v>
+        <v>1063175</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1173364</v>
+        <v>1175015</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3161208563009959</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2990564639191026</v>
+        <v>0.3001012413198693</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3312041501957175</v>
+        <v>0.3316702245341578</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2009</v>
@@ -3702,19 +3702,19 @@
         <v>2163863</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2082216</v>
+        <v>2087311</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2242136</v>
+        <v>2252403</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3112635682667973</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2995189809956259</v>
+        <v>0.300251809043095</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3225228860985103</v>
+        <v>0.3239997014749658</v>
       </c>
     </row>
     <row r="28">
@@ -5098,19 +5098,19 @@
         <v>506701</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>461419</v>
+        <v>466111</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>550216</v>
+        <v>547992</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1504777000277715</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1370301212295805</v>
+        <v>0.1384235031084956</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1634005501805375</v>
+        <v>0.1627402689109902</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>455</v>
@@ -5119,19 +5119,19 @@
         <v>489697</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>452829</v>
+        <v>444141</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>534010</v>
+        <v>536312</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1388506864301376</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1283967623342914</v>
+        <v>0.1259335256155237</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1514152105075483</v>
+        <v>0.1520678661116583</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>926</v>
@@ -5140,19 +5140,19 @@
         <v>996398</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>941182</v>
+        <v>935744</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1055876</v>
+        <v>1057791</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1445296845194081</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1365203945643342</v>
+        <v>0.1357315969908689</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.153157057744731</v>
+        <v>0.1534347605911447</v>
       </c>
     </row>
     <row r="25">
@@ -5169,19 +5169,19 @@
         <v>823759</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>774569</v>
+        <v>771067</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>877138</v>
+        <v>872402</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2446362700532007</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2300279527207238</v>
+        <v>0.2289878340483749</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2604884596081251</v>
+        <v>0.2590819559254787</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>728</v>
@@ -5190,19 +5190,19 @@
         <v>771059</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>720594</v>
+        <v>721661</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>819547</v>
+        <v>824965</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2186289099689063</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.204320099382715</v>
+        <v>0.2046224360279036</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2323774666566522</v>
+        <v>0.2339137477680431</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1515</v>
@@ -5211,19 +5211,19 @@
         <v>1594818</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1517379</v>
+        <v>1521838</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1671217</v>
+        <v>1662771</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2313317202808967</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2200989678271164</v>
+        <v>0.2207458447545878</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2424135419953598</v>
+        <v>0.241188385520955</v>
       </c>
     </row>
     <row r="26">
@@ -5240,19 +5240,19 @@
         <v>908825</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>854606</v>
+        <v>854526</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>963501</v>
+        <v>960224</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2698986080394809</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2537968730224924</v>
+        <v>0.2537731561834399</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2861360468233968</v>
+        <v>0.2851627970654264</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>951</v>
@@ -5261,19 +5261,19 @@
         <v>1006475</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>951405</v>
+        <v>950877</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1064486</v>
+        <v>1062526</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2853798041068393</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2697648567285753</v>
+        <v>0.2696153449041295</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3018285136966268</v>
+        <v>0.3012726275147082</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1832</v>
@@ -5282,19 +5282,19 @@
         <v>1915300</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1839497</v>
+        <v>1845491</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1992435</v>
+        <v>1994982</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2778183024238928</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2668228836864426</v>
+        <v>0.267692274513576</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2890068154879187</v>
+        <v>0.2893762534614785</v>
       </c>
     </row>
     <row r="27">
@@ -5311,19 +5311,19 @@
         <v>1127997</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1073090</v>
+        <v>1075168</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1185169</v>
+        <v>1184613</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3349874218795469</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3186814587654283</v>
+        <v>0.3192984871535899</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3519660070048566</v>
+        <v>0.3518009977240096</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1188</v>
@@ -5332,19 +5332,19 @@
         <v>1259561</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1203794</v>
+        <v>1208388</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1317053</v>
+        <v>1322874</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3571405994941168</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3413284128898709</v>
+        <v>0.342630972257788</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3734421093541375</v>
+        <v>0.3750928488997676</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2254</v>
@@ -5353,19 +5353,19 @@
         <v>2387558</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2304390</v>
+        <v>2304920</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2470329</v>
+        <v>2473364</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3463202927758023</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.334256535229414</v>
+        <v>0.3343335167394599</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3583264067718812</v>
+        <v>0.3587666103649736</v>
       </c>
     </row>
     <row r="28">
@@ -6749,19 +6749,19 @@
         <v>975929</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>917554</v>
+        <v>920431</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1034274</v>
+        <v>1035082</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2803359393714934</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2635677317228594</v>
+        <v>0.2643940685235563</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2970954533128424</v>
+        <v>0.2973276268462311</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1324</v>
@@ -6770,19 +6770,19 @@
         <v>910345</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>867048</v>
+        <v>863316</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>963045</v>
+        <v>962051</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2462111114442388</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2345010498391694</v>
+        <v>0.2334918368566812</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2604642536321563</v>
+        <v>0.2601954144866355</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2271</v>
@@ -6791,19 +6791,19 @@
         <v>1886274</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1808500</v>
+        <v>1812689</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1955897</v>
+        <v>1964883</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2627598211531695</v>
+        <v>0.2627598211531696</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2519258086009735</v>
+        <v>0.252509334503484</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2724582853836616</v>
+        <v>0.2737100805460225</v>
       </c>
     </row>
     <row r="25">
@@ -6820,19 +6820,19 @@
         <v>1046479</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>992262</v>
+        <v>988609</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1106203</v>
+        <v>1107241</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.300601472498592</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2850275857055368</v>
+        <v>0.2839782214122557</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3177572726360147</v>
+        <v>0.318055437307776</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1516</v>
@@ -6841,19 +6841,19 @@
         <v>1047642</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>999410</v>
+        <v>1002729</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1094832</v>
+        <v>1095291</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2833442430942961</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.270299622561203</v>
+        <v>0.2711973532300399</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2961074252487085</v>
+        <v>0.2962314976758822</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2545</v>
@@ -6862,19 +6862,19 @@
         <v>2094121</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2020533</v>
+        <v>2020132</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2180651</v>
+        <v>2167498</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2917130729797071</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.281462259729262</v>
+        <v>0.2814063965981847</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3037667901259273</v>
+        <v>0.3019346150646854</v>
       </c>
     </row>
     <row r="26">
@@ -6891,19 +6891,19 @@
         <v>960137</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>900695</v>
+        <v>894612</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1015342</v>
+        <v>1014050</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2757995596910936</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2587249025633793</v>
+        <v>0.2569776949352782</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2916573427338057</v>
+        <v>0.2912862660843019</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1607</v>
@@ -6912,19 +6912,19 @@
         <v>1115849</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1066319</v>
+        <v>1067964</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1168464</v>
+        <v>1168397</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3017916578455079</v>
+        <v>0.301791657845508</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2883958330865768</v>
+        <v>0.2888405129204766</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3160217560517238</v>
+        <v>0.3160036253974198</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2517</v>
@@ -6933,19 +6933,19 @@
         <v>2075986</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1997578</v>
+        <v>1997468</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2154069</v>
+        <v>2149838</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2891868855078898</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.278264520309268</v>
+        <v>0.2782492192055153</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3000639323540074</v>
+        <v>0.29947450137907</v>
       </c>
     </row>
     <row r="27">
@@ -6962,19 +6962,19 @@
         <v>498739</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>454576</v>
+        <v>453404</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>543337</v>
+        <v>547477</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.143263028438821</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1305771752612658</v>
+        <v>0.1302403486750901</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1560738651865175</v>
+        <v>0.1572629658655176</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>861</v>
@@ -6983,19 +6983,19 @@
         <v>623580</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>584943</v>
+        <v>582638</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>668284</v>
+        <v>666761</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.168652987615957</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1582031961928502</v>
+        <v>0.1575799114883717</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1807435181023281</v>
+        <v>0.1803316867074464</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1316</v>
@@ -7004,19 +7004,19 @@
         <v>1122320</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1060166</v>
+        <v>1065686</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1186764</v>
+        <v>1192142</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1563402203592335</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1476821080776039</v>
+        <v>0.1484511499309641</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1653173067503195</v>
+        <v>0.1660665605953379</v>
       </c>
     </row>
     <row r="28">
